--- a/Multiknapsack/results/fixed_recourse/multicut/M20_N100_T0_a50_ccg.xlsx
+++ b/Multiknapsack/results/fixed_recourse/multicut/M20_N100_T0_a50_ccg.xlsx
@@ -471,10 +471,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>-427.8855970728988</v>
+        <v>-137.11378152439335</v>
       </c>
       <c r="C2">
-        <v>7.489246665</v>
+        <v>11.056071965</v>
       </c>
       <c r="D2">
         <v>2</v>
@@ -483,16 +483,16 @@
         <v>14</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G2">
-        <v>322</v>
+        <v>4540</v>
       </c>
       <c r="H2">
-        <v>245</v>
+        <v>4900</v>
       </c>
       <c r="I2">
-        <v>20</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -500,10 +500,10 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-434.5319297237428</v>
+        <v>-135.31516046393284</v>
       </c>
       <c r="C3">
-        <v>0.06906842</v>
+        <v>12.622702481</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -512,16 +512,16 @@
         <v>14</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G3">
-        <v>322</v>
+        <v>4540</v>
       </c>
       <c r="H3">
-        <v>245</v>
+        <v>4900</v>
       </c>
       <c r="I3">
-        <v>20</v>
+        <v>400</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -529,10 +529,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>-443.3980582963035</v>
+        <v>-135.9563786652168</v>
       </c>
       <c r="C4">
-        <v>0.084830825</v>
+        <v>1.948236008</v>
       </c>
       <c r="D4">
         <v>2</v>
@@ -541,16 +541,16 @@
         <v>14</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G4">
-        <v>322</v>
+        <v>4540</v>
       </c>
       <c r="H4">
-        <v>245</v>
+        <v>4900</v>
       </c>
       <c r="I4">
-        <v>20</v>
+        <v>400</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -558,10 +558,10 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>-442.32635163818287</v>
+        <v>-135.5850537860195</v>
       </c>
       <c r="C5">
-        <v>0.082797398</v>
+        <v>2.686420733</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -570,16 +570,16 @@
         <v>14</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G5">
-        <v>322</v>
+        <v>4540</v>
       </c>
       <c r="H5">
-        <v>245</v>
+        <v>4900</v>
       </c>
       <c r="I5">
-        <v>20</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -587,10 +587,10 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>-427.42177211849423</v>
+        <v>-135.09243893581314</v>
       </c>
       <c r="C6">
-        <v>0.058229826</v>
+        <v>4.907678407</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -599,16 +599,16 @@
         <v>14</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G6">
-        <v>322</v>
+        <v>4540</v>
       </c>
       <c r="H6">
-        <v>245</v>
+        <v>4900</v>
       </c>
       <c r="I6">
-        <v>20</v>
+        <v>400</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -616,10 +616,10 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>-428.64652898559837</v>
+        <v>-134.73112232118444</v>
       </c>
       <c r="C7">
-        <v>0.064035963</v>
+        <v>3.20422136</v>
       </c>
       <c r="D7">
         <v>2</v>
@@ -628,16 +628,16 @@
         <v>14</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G7">
-        <v>322</v>
+        <v>4540</v>
       </c>
       <c r="H7">
-        <v>245</v>
+        <v>4900</v>
       </c>
       <c r="I7">
-        <v>20</v>
+        <v>400</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -645,10 +645,10 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>-422.09181730807757</v>
+        <v>-134.05690434902206</v>
       </c>
       <c r="C8">
-        <v>0.082503734</v>
+        <v>2.163176712</v>
       </c>
       <c r="D8">
         <v>2</v>
@@ -657,16 +657,16 @@
         <v>14</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G8">
-        <v>322</v>
+        <v>4540</v>
       </c>
       <c r="H8">
-        <v>245</v>
+        <v>4900</v>
       </c>
       <c r="I8">
-        <v>20</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -674,10 +674,10 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>-429.9772620922706</v>
+        <v>-135.76971071430322</v>
       </c>
       <c r="C9">
-        <v>0.087191951</v>
+        <v>4.20589065</v>
       </c>
       <c r="D9">
         <v>2</v>
@@ -686,16 +686,16 @@
         <v>14</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G9">
-        <v>322</v>
+        <v>4540</v>
       </c>
       <c r="H9">
-        <v>245</v>
+        <v>4900</v>
       </c>
       <c r="I9">
-        <v>20</v>
+        <v>400</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -703,10 +703,10 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>-435.3518524766065</v>
+        <v>-136.41153720782336</v>
       </c>
       <c r="C10">
-        <v>0.06883493</v>
+        <v>3.596505925</v>
       </c>
       <c r="D10">
         <v>2</v>
@@ -715,16 +715,16 @@
         <v>14</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G10">
-        <v>322</v>
+        <v>4540</v>
       </c>
       <c r="H10">
-        <v>245</v>
+        <v>4900</v>
       </c>
       <c r="I10">
-        <v>20</v>
+        <v>400</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -732,10 +732,10 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>-419.16895606123836</v>
+        <v>-132.46179094034034</v>
       </c>
       <c r="C11">
-        <v>0.065797137</v>
+        <v>2.038113123</v>
       </c>
       <c r="D11">
         <v>2</v>
@@ -744,16 +744,16 @@
         <v>14</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="G11">
-        <v>322</v>
+        <v>4540</v>
       </c>
       <c r="H11">
-        <v>245</v>
+        <v>4900</v>
       </c>
       <c r="I11">
-        <v>20</v>
+        <v>400</v>
       </c>
     </row>
   </sheetData>
@@ -797,10 +797,10 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>0.010287083527709961</v>
+        <v>0.03269587608947754</v>
       </c>
       <c r="E2">
-        <v>24.29758</v>
+        <v>171.2598</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -808,13 +808,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-435.3518524766065</v>
+        <v>-136.41153720782336</v>
       </c>
       <c r="C3">
         <v>0.0</v>
       </c>
       <c r="D3">
-        <v>0.022004204662719726</v>
+        <v>3.42988516757666</v>
       </c>
       <c r="E3">
         <v>0.0</v>
@@ -861,10 +861,10 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>0.008804358209716798</v>
+        <v>0.03384418304577637</v>
       </c>
       <c r="E2">
-        <v>24.03465</v>
+        <v>163.88726</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -872,13 +872,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-419.16895606123836</v>
+        <v>-132.46179094034034</v>
       </c>
       <c r="C3">
-        <v>1.3007556535059771e-9</v>
+        <v>0.0025099451649938528</v>
       </c>
       <c r="D3">
-        <v>0.023769364880615235</v>
+        <v>1.8434304642711181</v>
       </c>
       <c r="E3">
         <v>0.0</v>
@@ -925,10 +925,10 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>0.792349491156128</v>
+        <v>0.8669809423485108</v>
       </c>
       <c r="E2">
-        <v>23.28916</v>
+        <v>165.52848</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -936,13 +936,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-427.8855970728988</v>
+        <v>-137.11378152439335</v>
       </c>
       <c r="C3">
         <v>0.0</v>
       </c>
       <c r="D3">
-        <v>0.040390985966918945</v>
+        <v>2.8551541294902343</v>
       </c>
       <c r="E3">
         <v>0.0</v>
@@ -989,10 +989,10 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>0.008857436514648438</v>
+        <v>0.011364067604125977</v>
       </c>
       <c r="E2">
-        <v>25.14566</v>
+        <v>167.0124</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1000,13 +1000,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-434.5319297237428</v>
+        <v>-135.31516046393284</v>
       </c>
       <c r="C3">
-        <v>2.6163057291064248e-14</v>
+        <v>0.0</v>
       </c>
       <c r="D3">
-        <v>0.030011925853515625</v>
+        <v>12.38545942334436</v>
       </c>
       <c r="E3">
         <v>0.0</v>
@@ -1053,10 +1053,10 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>0.009748992416259766</v>
+        <v>0.00943007471899414</v>
       </c>
       <c r="E2">
-        <v>26.38901</v>
+        <v>166.55002</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1064,13 +1064,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-443.3980582963035</v>
+        <v>-135.9563786652168</v>
       </c>
       <c r="C3">
         <v>0.0</v>
       </c>
       <c r="D3">
-        <v>0.028694542986083982</v>
+        <v>1.8040341777868651</v>
       </c>
       <c r="E3">
         <v>0.0</v>
@@ -1117,10 +1117,10 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>0.012292142487304687</v>
+        <v>0.008750904853393554</v>
       </c>
       <c r="E2">
-        <v>26.74182</v>
+        <v>164.72922</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1128,13 +1128,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-442.32635163818287</v>
+        <v>-135.5850537860195</v>
       </c>
       <c r="C3">
         <v>0.0</v>
       </c>
       <c r="D3">
-        <v>0.03328014266418457</v>
+        <v>2.5505349128145753</v>
       </c>
       <c r="E3">
         <v>0.0</v>
@@ -1181,10 +1181,10 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>0.00855990584362793</v>
+        <v>0.009573758692749023</v>
       </c>
       <c r="E2">
-        <v>22.39707</v>
+        <v>169.55829</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1192,13 +1192,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-427.42177211849423</v>
+        <v>-135.09243893581314</v>
       </c>
       <c r="C3">
-        <v>0.0</v>
+        <v>0.051869612611238666</v>
       </c>
       <c r="D3">
-        <v>0.018245060056884765</v>
+        <v>4.769428387573364</v>
       </c>
       <c r="E3">
         <v>0.0</v>
@@ -1245,10 +1245,10 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>0.009352410067626953</v>
+        <v>0.009327409531005859</v>
       </c>
       <c r="E2">
-        <v>23.33864</v>
+        <v>177.47579</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1256,13 +1256,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-428.64652898559837</v>
+        <v>-134.73112232118444</v>
       </c>
       <c r="C3">
-        <v>3.978342178249943e-14</v>
+        <v>0.0</v>
       </c>
       <c r="D3">
-        <v>0.025318755118652343</v>
+        <v>3.067907320930298</v>
       </c>
       <c r="E3">
         <v>0.0</v>
@@ -1309,10 +1309,10 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>0.010452405464355469</v>
+        <v>0.011674548388916016</v>
       </c>
       <c r="E2">
-        <v>25.39593</v>
+        <v>163.07636</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1320,13 +1320,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-422.09181730807757</v>
+        <v>-134.05690434902206</v>
       </c>
       <c r="C3">
-        <v>1.3467074349680063e-14</v>
+        <v>0.0012488327372997706</v>
       </c>
       <c r="D3">
-        <v>0.02797309095739746</v>
+        <v>2.026148947855469</v>
       </c>
       <c r="E3">
         <v>0.0</v>
@@ -1373,10 +1373,10 @@
         <v>0.0</v>
       </c>
       <c r="D2">
-        <v>0.011133581371459962</v>
+        <v>0.008772737906982422</v>
       </c>
       <c r="E2">
-        <v>22.06124</v>
+        <v>160.28209</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1384,13 +1384,13 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>-429.9772620922706</v>
+        <v>-135.76971071430322</v>
       </c>
       <c r="C3">
-        <v>0.0</v>
+        <v>0.0811339257734688</v>
       </c>
       <c r="D3">
-        <v>0.039142421881713865</v>
+        <v>4.065944402905395</v>
       </c>
       <c r="E3">
         <v>0.0</v>
